--- a/OBV-ADX-Santi.xlsx
+++ b/OBV-ADX-Santi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{529FFA28-5A0E-4986-8B2A-E1087F1BDE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935B881-29CF-455A-9D69-9A951B5FAC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33165" yWindow="3270" windowWidth="28800" windowHeight="15285" xr2:uid="{154ACD0E-5270-4A26-9FDC-CACA61E2C2B1}"/>
+    <workbookView xWindow="31110" yWindow="2310" windowWidth="28800" windowHeight="15285" xr2:uid="{154ACD0E-5270-4A26-9FDC-CACA61E2C2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5A0519-AAA6-4B88-A477-9ADDC47E00BD}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,2341 +467,1761 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>40233.395833333343</v>
+        <v>41667.395833333343</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>40233.395833333343</v>
+        <v>41667.395833333343</v>
       </c>
       <c r="D2">
-        <v>110.13999938964839</v>
+        <v>178.13999938964841</v>
       </c>
       <c r="E2" s="1">
-        <v>40242.663194444453</v>
+        <v>41697.663194444453</v>
       </c>
       <c r="F2">
-        <v>113.78177885743</v>
+        <v>185.82000732421881</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>40296.395833333343</v>
+        <v>41726.395833333343</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>40296.395833333343</v>
+        <v>41726.395833333343</v>
       </c>
       <c r="D3">
-        <v>119.0500030517578</v>
+        <v>185.11000061035159</v>
       </c>
       <c r="E3" s="1">
-        <v>40304.663194444453</v>
+        <v>41757.663194444453</v>
       </c>
       <c r="F3">
-        <v>109.10503941925739</v>
+        <v>186.8800048828125</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>40308.395833333343</v>
+        <v>41775.395833333343</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>40308.395833333343</v>
+        <v>41775.395833333343</v>
       </c>
       <c r="D4">
-        <v>115.80999755859381</v>
+        <v>187.50999450683591</v>
       </c>
       <c r="E4" s="1">
-        <v>40315.663194444453</v>
+        <v>41795.663194444453</v>
       </c>
       <c r="F4">
-        <v>111.9807395813837</v>
+        <v>193.7100131356994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>40343.395833333343</v>
+        <v>41848.395833333343</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>40343.395833333343</v>
+        <v>41848.395833333343</v>
       </c>
       <c r="D5">
-        <v>110.51999664306641</v>
+        <v>197.75999450683591</v>
       </c>
       <c r="E5" s="1">
-        <v>40360.663194444453</v>
+        <v>41878.663194444453</v>
       </c>
       <c r="F5">
-        <v>101.2875958106068</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>40365.395833333343</v>
+        <v>41913.395833333343</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>40365.395833333343</v>
+        <v>41913.395833333343</v>
       </c>
       <c r="D6">
-        <v>103.63999938964839</v>
+        <v>196.69999694824219</v>
       </c>
       <c r="E6" s="1">
-        <v>40392.663194444453</v>
+        <v>41925.663194444453</v>
       </c>
       <c r="F6">
-        <v>112.2976726225867</v>
+        <v>190.1961108562823</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>40402.395833333343</v>
+        <v>41928.395833333343</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>40402.395833333343</v>
+        <v>41928.395833333343</v>
       </c>
       <c r="D7">
-        <v>107.65000152587891</v>
+        <v>183.05999755859381</v>
       </c>
       <c r="E7" s="1">
-        <v>40434.663194444453</v>
+        <v>41940.663194444453</v>
       </c>
       <c r="F7">
-        <v>112.7200012207031</v>
+        <v>198.3521014781069</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>40598.395833333343</v>
+        <v>41989.395833333343</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>40598.395833333343</v>
+        <v>41989.395833333343</v>
       </c>
       <c r="D8">
-        <v>130.8800048828125</v>
+        <v>198.58000183105469</v>
       </c>
       <c r="E8" s="1">
-        <v>40630.663194444453</v>
+        <v>42019.663194444453</v>
       </c>
       <c r="F8">
-        <v>130.97999572753909</v>
+        <v>199.02000427246091</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>40688.395833333343</v>
+        <v>42075.395833333343</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>40688.395833333343</v>
+        <v>42075.395833333343</v>
       </c>
       <c r="D9">
-        <v>131.41999816894531</v>
+        <v>205.25999450683591</v>
       </c>
       <c r="E9" s="1">
-        <v>40707.663194444453</v>
+        <v>42107.663194444453</v>
       </c>
       <c r="F9">
-        <v>127.0745954665685</v>
+        <v>209.0899963378906</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>40724.395833333343</v>
+        <v>42131.395833333343</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>40724.395833333343</v>
+        <v>42131.395833333343</v>
       </c>
       <c r="D10">
-        <v>131.13999938964841</v>
+        <v>207.91999816894531</v>
       </c>
       <c r="E10" s="1">
-        <v>40731.663194444453</v>
+        <v>42163.663194444453</v>
       </c>
       <c r="F10">
-        <v>135.47614393140151</v>
+        <v>208.47999572753909</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>40736.395833333343</v>
+        <v>42165.395833333343</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>40736.395833333343</v>
+        <v>42165.395833333343</v>
       </c>
       <c r="D11">
-        <v>131.69000244140619</v>
+        <v>209.3699951171875</v>
       </c>
       <c r="E11" s="1">
-        <v>40759.663194444453</v>
+        <v>42195.663194444453</v>
       </c>
       <c r="F11">
-        <v>120.6891435462217</v>
+        <v>207.47999572753909</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>40763.395833333343</v>
+        <v>42215.395833333343</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>40763.395833333343</v>
+        <v>42215.395833333343</v>
       </c>
       <c r="D12">
-        <v>116.9100036621094</v>
+        <v>210.1600036621094</v>
       </c>
       <c r="E12" s="1">
-        <v>40763.663194444453</v>
+        <v>42240.663194444453</v>
       </c>
       <c r="F12">
-        <v>113.0443739792119</v>
+        <v>192.60407304598681</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>40766.395833333343</v>
+        <v>42242.395833333343</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>40766.395833333343</v>
+        <v>42242.395833333343</v>
       </c>
       <c r="D13">
-        <v>113.2600021362305</v>
+        <v>192.08000183105469</v>
       </c>
       <c r="E13" s="1">
-        <v>40786.663194444453</v>
+        <v>42272.663194444453</v>
       </c>
       <c r="F13">
-        <v>122.7212921268913</v>
+        <v>192.8500061035156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>40792.395833333343</v>
+        <v>42276.395833333343</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>40792.395833333343</v>
+        <v>42276.395833333343</v>
       </c>
       <c r="D14">
-        <v>114.38999938964839</v>
+        <v>188.27000427246091</v>
       </c>
       <c r="E14" s="1">
-        <v>40793.663194444453</v>
+        <v>42299.663194444453</v>
       </c>
       <c r="F14">
-        <v>118.1723051224004</v>
+        <v>203.9973314256263</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>40800.395833333343</v>
+        <v>42321.395833333343</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>40800.395833333343</v>
+        <v>42321.395833333343</v>
       </c>
       <c r="D15">
-        <v>118.3399963378906</v>
+        <v>204.3500061035156</v>
       </c>
       <c r="E15" s="1">
-        <v>40820.663194444453</v>
+        <v>42352.663194444453</v>
       </c>
       <c r="F15">
-        <v>108.4543438416122</v>
+        <v>202.8999938964844</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>40822.395833333343</v>
+        <v>42355.395833333343</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>40822.395833333343</v>
+        <v>42355.395833333343</v>
       </c>
       <c r="D16">
-        <v>114.36000061035161</v>
+        <v>208.3999938964844</v>
       </c>
       <c r="E16" s="1">
-        <v>40826.663194444453</v>
+        <v>42380.663194444453</v>
       </c>
       <c r="F16">
-        <v>118.14131443336041</v>
+        <v>190.99108749424931</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>40828.395833333343</v>
+        <v>42401.395833333343</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>40828.395833333343</v>
+        <v>42401.395833333343</v>
       </c>
       <c r="D17">
-        <v>120.59999847412109</v>
+        <v>192.5299987792969</v>
       </c>
       <c r="E17" s="1">
-        <v>40840.663194444453</v>
+        <v>42431.663194444453</v>
       </c>
       <c r="F17">
-        <v>124.58763784847559</v>
+        <v>198.896003867112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>40848.395833333343</v>
+        <v>42433.395833333343</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>40848.395833333343</v>
+        <v>42433.395833333343</v>
       </c>
       <c r="D18">
-        <v>122.0299987792969</v>
+        <v>200.00999450683591</v>
       </c>
       <c r="E18" s="1">
-        <v>40850.663194444453</v>
+        <v>42459.663194444453</v>
       </c>
       <c r="F18">
-        <v>126.0649211187791</v>
+        <v>206.62332567972999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>40854.395833333343</v>
+        <v>42548.395833333343</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>40854.395833333343</v>
+        <v>42548.395833333343</v>
       </c>
       <c r="D19">
-        <v>125.38999938964839</v>
+        <v>201.5899963378906</v>
       </c>
       <c r="E19" s="1">
-        <v>40884.663194444453</v>
+        <v>42578.663194444453</v>
       </c>
       <c r="F19">
-        <v>126.73000335693359</v>
+        <v>216.52000427246091</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>41008.395833333343</v>
+        <v>42611.395833333343</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>41008.395833333343</v>
+        <v>42611.395833333343</v>
       </c>
       <c r="D20">
-        <v>138.0299987792969</v>
+        <v>217.44000244140619</v>
       </c>
       <c r="E20" s="1">
-        <v>41038.663194444453</v>
+        <v>42641.663194444453</v>
       </c>
       <c r="F20">
-        <v>135.74000549316409</v>
+        <v>216.63999938964841</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>41044.395833333343</v>
+        <v>42663.395833333343</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>41044.395833333343</v>
+        <v>42663.395833333343</v>
       </c>
       <c r="D21">
-        <v>134.02000427246091</v>
+        <v>213.8699951171875</v>
       </c>
       <c r="E21" s="1">
-        <v>41047.663194444453</v>
+        <v>42695.663194444453</v>
       </c>
       <c r="F21">
-        <v>129.58863235911301</v>
+        <v>220.1499938964844</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>41071.395833333343</v>
+        <v>42821.395833333343</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>41071.395833333343</v>
+        <v>42821.395833333343</v>
       </c>
       <c r="D22">
-        <v>134.16999816894531</v>
+        <v>231.92999267578119</v>
       </c>
       <c r="E22" s="1">
-        <v>41101.663194444453</v>
+        <v>42851.663194444453</v>
       </c>
       <c r="F22">
-        <v>134.1600036621094</v>
+        <v>238.3999938964844</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>41205.395833333343</v>
+        <v>42873.395833333343</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>41205.395833333343</v>
+        <v>42873.395833333343</v>
       </c>
       <c r="D23">
-        <v>141.86000061035159</v>
+        <v>235.72999572753909</v>
       </c>
       <c r="E23" s="1">
-        <v>41236.663194444453</v>
+        <v>42905.663194444453</v>
       </c>
       <c r="F23">
-        <v>141.3500061035156</v>
+        <v>244.6600036621094</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>41327.395833333343</v>
+        <v>42908.395833333343</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>41327.395833333343</v>
+        <v>42908.395833333343</v>
       </c>
       <c r="D24">
-        <v>151.1499938964844</v>
+        <v>242.96000671386719</v>
       </c>
       <c r="E24" s="1">
-        <v>41358.663194444453</v>
+        <v>42940.663194444453</v>
       </c>
       <c r="F24">
-        <v>154.94999694824219</v>
+        <v>246.82000732421881</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>41383.395833333343</v>
+        <v>42958.395833333343</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>41383.395833333343</v>
+        <v>42958.395833333343</v>
       </c>
       <c r="D25">
-        <v>154.5</v>
+        <v>244.02000427246091</v>
       </c>
       <c r="E25" s="1">
-        <v>41414.663194444453</v>
+        <v>42989.663194444453</v>
       </c>
       <c r="F25">
-        <v>167.4063153451018</v>
+        <v>249.21000671386719</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>41431.395833333343</v>
+        <v>42996.395833333343</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>41431.395833333343</v>
+        <v>42996.395833333343</v>
       </c>
       <c r="D26">
-        <v>161.19999694824219</v>
+        <v>249.61000061035159</v>
       </c>
       <c r="E26" s="1">
-        <v>41449.663194444453</v>
+        <v>43026.663194444453</v>
       </c>
       <c r="F26">
-        <v>155.86991848132931</v>
+        <v>255.7200012207031</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>41465.395833333343</v>
+        <v>43075.395833333343</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>41465.395833333343</v>
+        <v>43075.395833333343</v>
       </c>
       <c r="D27">
-        <v>164.9700012207031</v>
+        <v>263.29998779296881</v>
       </c>
       <c r="E27" s="1">
-        <v>41487.663194444453</v>
+        <v>43105.663194444453</v>
       </c>
       <c r="F27">
-        <v>170.42473489216451</v>
+        <v>273.42001342773438</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>41505.395833333343</v>
+        <v>43137.395833333343</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>41505.395833333343</v>
+        <v>43137.395833333343</v>
       </c>
       <c r="D28">
-        <v>165.63999938964841</v>
+        <v>259.94000244140619</v>
       </c>
       <c r="E28" s="1">
-        <v>41535.663194444453</v>
+        <v>43167.663194444453</v>
       </c>
       <c r="F28">
-        <v>173.05000305175781</v>
+        <v>274.10000610351563</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>41556.395833333343</v>
+        <v>43171.395833333343</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>41556.395833333343</v>
+        <v>43171.395833333343</v>
       </c>
       <c r="D29">
-        <v>165.80000305175781</v>
+        <v>279.20001220703119</v>
       </c>
       <c r="E29" s="1">
-        <v>41586.663194444453</v>
+        <v>43192.663194444453</v>
       </c>
       <c r="F29">
-        <v>177.28999328613281</v>
+        <v>255.8767539423049</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>41613.395833333343</v>
+        <v>43207.395833333343</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>41613.395833333343</v>
+        <v>43207.395833333343</v>
       </c>
       <c r="D30">
-        <v>179.4100036621094</v>
+        <v>269.32998657226563</v>
       </c>
       <c r="E30" s="1">
-        <v>41645.663194444453</v>
+        <v>43237.663194444453</v>
       </c>
       <c r="F30">
-        <v>182.36000061035159</v>
+        <v>272.010009765625</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>41667.395833333343</v>
+        <v>43241.395833333343</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>41667.395833333343</v>
+        <v>43241.395833333343</v>
       </c>
       <c r="D31">
-        <v>178.13999938964841</v>
+        <v>273.010009765625</v>
       </c>
       <c r="E31" s="1">
-        <v>41697.663194444453</v>
+        <v>43271.663194444453</v>
       </c>
       <c r="F31">
-        <v>185.82000732421881</v>
+        <v>275.97000122070313</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>41726.395833333343</v>
+        <v>43284.395833333343</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>41726.395833333343</v>
+        <v>43284.395833333343</v>
       </c>
       <c r="D32">
-        <v>185.11000061035159</v>
+        <v>272.8699951171875</v>
       </c>
       <c r="E32" s="1">
-        <v>41757.663194444453</v>
+        <v>43305.663194444453</v>
       </c>
       <c r="F32">
-        <v>186.8800048828125</v>
+        <v>281.89244246690868</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>41775.395833333343</v>
+        <v>43328.395833333343</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>41775.395833333343</v>
+        <v>43328.395833333343</v>
       </c>
       <c r="D33">
-        <v>187.50999450683591</v>
+        <v>283.39999389648438</v>
       </c>
       <c r="E33" s="1">
-        <v>41795.663194444453</v>
+        <v>43360.663194444453</v>
       </c>
       <c r="F33">
-        <v>193.7100131356994</v>
+        <v>289.33999633789063</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>41848.395833333343</v>
+        <v>43384.395833333343</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>41848.395833333343</v>
+        <v>43384.395833333343</v>
       </c>
       <c r="D34">
-        <v>197.75999450683591</v>
+        <v>277.07998657226563</v>
       </c>
       <c r="E34" s="1">
-        <v>41878.663194444453</v>
+        <v>43397.663194444453</v>
       </c>
       <c r="F34">
-        <v>200.25</v>
+        <v>267.91833584025278</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>41913.395833333343</v>
+        <v>43433.395833333343</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>41913.395833333343</v>
+        <v>43433.395833333343</v>
       </c>
       <c r="D35">
-        <v>196.69999694824219</v>
+        <v>273.70999145507813</v>
       </c>
       <c r="E35" s="1">
-        <v>41925.663194444453</v>
+        <v>43453.663194444453</v>
       </c>
       <c r="F35">
-        <v>190.1961108562823</v>
+        <v>250.84534768275211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>41928.395833333343</v>
+        <v>43455.395833333343</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>41928.395833333343</v>
+        <v>43455.395833333343</v>
       </c>
       <c r="D36">
-        <v>183.05999755859381</v>
+        <v>246.74000549316409</v>
       </c>
       <c r="E36" s="1">
-        <v>41940.663194444453</v>
+        <v>43458.663194444453</v>
       </c>
       <c r="F36">
-        <v>198.3521014781069</v>
+        <v>238.58154634240279</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>41989.395833333343</v>
+        <v>43474.395833333343</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>41989.395833333343</v>
+        <v>43474.395833333343</v>
       </c>
       <c r="D37">
-        <v>198.58000183105469</v>
+        <v>257.55999755859381</v>
       </c>
       <c r="E37" s="1">
-        <v>42019.663194444453</v>
+        <v>43483.663194444453</v>
       </c>
       <c r="F37">
-        <v>199.02000427246091</v>
+        <v>266.07621978511128</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>42075.395833333343</v>
+        <v>43593.395833333343</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>42075.395833333343</v>
+        <v>43593.395833333343</v>
       </c>
       <c r="D38">
-        <v>205.25999450683591</v>
+        <v>287.52999877929688</v>
       </c>
       <c r="E38" s="1">
-        <v>42107.663194444453</v>
+        <v>43614.663194444453</v>
       </c>
       <c r="F38">
-        <v>209.0899963378906</v>
+        <v>278.02281835684892</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>42131.395833333343</v>
+        <v>43626.395833333343</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>42131.395833333343</v>
+        <v>43626.395833333343</v>
       </c>
       <c r="D39">
-        <v>207.91999816894531</v>
+        <v>289.3699951171875</v>
       </c>
       <c r="E39" s="1">
-        <v>42163.663194444453</v>
+        <v>43656.663194444453</v>
       </c>
       <c r="F39">
-        <v>208.47999572753909</v>
+        <v>298.93801502502919</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>42165.395833333343</v>
+        <v>43679.395833333343</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>42165.395833333343</v>
+        <v>43679.395833333343</v>
       </c>
       <c r="D40">
-        <v>209.3699951171875</v>
+        <v>293.85000610351563</v>
       </c>
       <c r="E40" s="1">
-        <v>42195.663194444453</v>
+        <v>43682.663194444453</v>
       </c>
       <c r="F40">
-        <v>207.47999572753909</v>
+        <v>284.1338546166304</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>42215.395833333343</v>
+        <v>43697.395833333343</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>42215.395833333343</v>
+        <v>43697.395833333343</v>
       </c>
       <c r="D41">
-        <v>210.1600036621094</v>
+        <v>291.76998901367188</v>
       </c>
       <c r="E41" s="1">
-        <v>42240.663194444453</v>
+        <v>43720.663194444453</v>
       </c>
       <c r="F41">
-        <v>192.60407304598681</v>
+        <v>301.41736472815472</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>42242.395833333343</v>
+        <v>43741.395833333343</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>42242.395833333343</v>
+        <v>43741.395833333343</v>
       </c>
       <c r="D42">
-        <v>192.08000183105469</v>
+        <v>287.80999755859381</v>
       </c>
       <c r="E42" s="1">
-        <v>42272.663194444453</v>
+        <v>43773.663194444453</v>
       </c>
       <c r="F42">
-        <v>192.8500061035156</v>
+        <v>307.3699951171875</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42276.395833333343</v>
+        <v>43805.395833333343</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>42276.395833333343</v>
+        <v>43805.395833333343</v>
       </c>
       <c r="D43">
-        <v>188.27000427246091</v>
+        <v>314.1199951171875</v>
       </c>
       <c r="E43" s="1">
-        <v>42299.663194444453</v>
+        <v>43832.663194444453</v>
       </c>
       <c r="F43">
-        <v>203.9973314256263</v>
+        <v>324.50637386220978</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42321.395833333343</v>
+        <v>43858.395833333343</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>42321.395833333343</v>
+        <v>43858.395833333343</v>
       </c>
       <c r="D44">
-        <v>204.3500061035156</v>
+        <v>325.05999755859381</v>
       </c>
       <c r="E44" s="1">
-        <v>42352.663194444453</v>
+        <v>43872.663194444453</v>
       </c>
       <c r="F44">
-        <v>202.8999938964844</v>
+        <v>335.80810752287681</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>42355.395833333343</v>
+        <v>43887.395833333343</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>42355.395833333343</v>
+        <v>43887.395833333343</v>
       </c>
       <c r="D45">
-        <v>208.3999938964844</v>
+        <v>314.17999267578119</v>
       </c>
       <c r="E45" s="1">
-        <v>42380.663194444453</v>
+        <v>43888.663194444453</v>
       </c>
       <c r="F45">
-        <v>190.99108749424931</v>
+        <v>303.79163011127258</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>42401.395833333343</v>
+        <v>43892.395833333343</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>42401.395833333343</v>
+        <v>43892.395833333343</v>
       </c>
       <c r="D46">
-        <v>192.5299987792969</v>
+        <v>298.20999145507813</v>
       </c>
       <c r="E46" s="1">
-        <v>42431.663194444453</v>
+        <v>43899.663194444453</v>
       </c>
       <c r="F46">
-        <v>198.896003867112</v>
+        <v>288.34967703718559</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>42433.395833333343</v>
+        <v>43966.395833333343</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>42433.395833333343</v>
+        <v>43966.395833333343</v>
       </c>
       <c r="D47">
-        <v>200.00999450683591</v>
+        <v>282.3699951171875</v>
       </c>
       <c r="E47" s="1">
-        <v>42459.663194444453</v>
+        <v>43969.663194444453</v>
       </c>
       <c r="F47">
-        <v>206.62332567972999</v>
+        <v>291.70656000037201</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>42548.395833333343</v>
+        <v>43994.395833333343</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>42548.395833333343</v>
+        <v>43994.395833333343</v>
       </c>
       <c r="D48">
-        <v>201.5899963378906</v>
+        <v>308.239990234375</v>
       </c>
       <c r="E48" s="1">
-        <v>42578.663194444453</v>
+        <v>44025.663194444453</v>
       </c>
       <c r="F48">
-        <v>216.52000427246091</v>
+        <v>318.43194659723508</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>42611.395833333343</v>
+        <v>44096.395833333343</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>42611.395833333343</v>
+        <v>44096.395833333343</v>
       </c>
       <c r="D49">
-        <v>217.44000244140619</v>
+        <v>328.57000732421881</v>
       </c>
       <c r="E49" s="1">
-        <v>42641.663194444453</v>
+        <v>44126.663194444453</v>
       </c>
       <c r="F49">
-        <v>216.63999938964841</v>
+        <v>344.6099853515625</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>42663.395833333343</v>
+        <v>44133.395833333343</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>42663.395833333343</v>
+        <v>44133.395833333343</v>
       </c>
       <c r="D50">
-        <v>213.8699951171875</v>
+        <v>326.91000366210938</v>
       </c>
       <c r="E50" s="1">
-        <v>42695.663194444453</v>
+        <v>44144.663194444453</v>
       </c>
       <c r="F50">
-        <v>220.1499938964844</v>
+        <v>354.21876480600309</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>42821.395833333343</v>
+        <v>44148.395833333343</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>42821.395833333343</v>
+        <v>44148.395833333343</v>
       </c>
       <c r="D51">
-        <v>231.92999267578119</v>
+        <v>355.26998901367188</v>
       </c>
       <c r="E51" s="1">
-        <v>42851.663194444453</v>
+        <v>44166.663194444453</v>
       </c>
       <c r="F51">
-        <v>238.3999938964844</v>
+        <v>367.01699245183028</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>42873.395833333343</v>
+        <v>44179.395833333343</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>42873.395833333343</v>
+        <v>44179.395833333343</v>
       </c>
       <c r="D52">
-        <v>235.72999572753909</v>
+        <v>368.6400146484375</v>
       </c>
       <c r="E52" s="1">
-        <v>42905.663194444453</v>
+        <v>44209.663194444453</v>
       </c>
       <c r="F52">
-        <v>244.6600036621094</v>
+        <v>379.79000854492188</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>42908.395833333343</v>
+        <v>44225.395833333343</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>42908.395833333343</v>
+        <v>44225.395833333343</v>
       </c>
       <c r="D53">
-        <v>242.96000671386719</v>
+        <v>375.6300048828125</v>
       </c>
       <c r="E53" s="1">
-        <v>42940.663194444453</v>
+        <v>44232.663194444453</v>
       </c>
       <c r="F53">
-        <v>246.82000732421881</v>
+        <v>388.0502123174013</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>42958.395833333343</v>
+        <v>44251.395833333343</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>42958.395833333343</v>
+        <v>44251.395833333343</v>
       </c>
       <c r="D54">
-        <v>244.02000427246091</v>
+        <v>386.32998657226563</v>
       </c>
       <c r="E54" s="1">
-        <v>42989.663194444453</v>
+        <v>44281.663194444453</v>
       </c>
       <c r="F54">
-        <v>249.21000671386719</v>
+        <v>395.98001098632813</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>42996.395833333343</v>
+        <v>44329.395833333343</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>42996.395833333343</v>
+        <v>44329.395833333343</v>
       </c>
       <c r="D55">
-        <v>249.61000061035159</v>
+        <v>407.07000732421881</v>
       </c>
       <c r="E55" s="1">
-        <v>43026.663194444453</v>
+        <v>44361.663194444453</v>
       </c>
       <c r="F55">
-        <v>255.7200012207031</v>
+        <v>425.260009765625</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>43075.395833333343</v>
+        <v>44368.395833333343</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>43075.395833333343</v>
+        <v>44368.395833333343</v>
       </c>
       <c r="D56">
-        <v>263.29998779296881</v>
+        <v>416.79998779296881</v>
       </c>
       <c r="E56" s="1">
-        <v>43105.663194444453</v>
+        <v>44398.663194444453</v>
       </c>
       <c r="F56">
-        <v>273.42001342773438</v>
+        <v>434.54998779296881</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>43137.395833333343</v>
+        <v>44405.395833333343</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>43137.395833333343</v>
+        <v>44405.395833333343</v>
       </c>
       <c r="D57">
-        <v>259.94000244140619</v>
+        <v>439.67999267578119</v>
       </c>
       <c r="E57" s="1">
-        <v>43167.663194444453</v>
+        <v>44435.663194444453</v>
       </c>
       <c r="F57">
-        <v>274.10000610351563</v>
+        <v>450.25</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>43171.395833333343</v>
+        <v>44459.395833333343</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>43171.395833333343</v>
+        <v>44459.395833333343</v>
       </c>
       <c r="D58">
-        <v>279.20001220703119</v>
+        <v>434.8800048828125</v>
       </c>
       <c r="E58" s="1">
-        <v>43192.663194444453</v>
+        <v>44489.663194444453</v>
       </c>
       <c r="F58">
-        <v>255.8767539423049</v>
+        <v>452.41000366210938</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>43207.395833333343</v>
+        <v>44532.395833333343</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>43207.395833333343</v>
+        <v>44532.395833333343</v>
       </c>
       <c r="D59">
-        <v>269.32998657226563</v>
+        <v>450.73001098632813</v>
       </c>
       <c r="E59" s="1">
-        <v>43237.663194444453</v>
+        <v>44564.663194444453</v>
       </c>
       <c r="F59">
-        <v>272.010009765625</v>
+        <v>477.70999145507813</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>43241.395833333343</v>
+        <v>44571.395833333343</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>43241.395833333343</v>
+        <v>44571.395833333343</v>
       </c>
       <c r="D60">
-        <v>273.010009765625</v>
+        <v>462.70001220703119</v>
       </c>
       <c r="E60" s="1">
-        <v>43271.663194444453</v>
+        <v>44581.663194444453</v>
       </c>
       <c r="F60">
-        <v>275.97000122070313</v>
+        <v>447.40083467356732</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>43284.395833333343</v>
+        <v>44585.395833333343</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>43284.395833333343</v>
+        <v>44585.395833333343</v>
       </c>
       <c r="D61">
-        <v>272.8699951171875</v>
+        <v>432.02999877929688</v>
       </c>
       <c r="E61" s="1">
-        <v>43305.663194444453</v>
+        <v>44615.663194444453</v>
       </c>
       <c r="F61">
-        <v>281.89244246690868</v>
+        <v>421.95001220703119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>43328.395833333343</v>
+        <v>44629.395833333343</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>43328.395833333343</v>
+        <v>44629.395833333343</v>
       </c>
       <c r="D62">
-        <v>283.39999389648438</v>
+        <v>425.1400146484375</v>
       </c>
       <c r="E62" s="1">
-        <v>43360.663194444453</v>
+        <v>44649.663194444453</v>
       </c>
       <c r="F62">
-        <v>289.33999633789063</v>
+        <v>460.65452011687728</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>43384.395833333343</v>
+        <v>44658.395833333343</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>43384.395833333343</v>
+        <v>44658.395833333343</v>
       </c>
       <c r="D63">
-        <v>277.07998657226563</v>
+        <v>445.58999633789063</v>
       </c>
       <c r="E63" s="1">
-        <v>43397.663194444453</v>
+        <v>44683.663194444453</v>
       </c>
       <c r="F63">
-        <v>267.91833584025278</v>
+        <v>408.36718075627522</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>43433.395833333343</v>
+        <v>44685.395833333343</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>43433.395833333343</v>
+        <v>44685.395833333343</v>
       </c>
       <c r="D64">
-        <v>273.70999145507813</v>
+        <v>417.07998657226563</v>
       </c>
       <c r="E64" s="1">
-        <v>43453.663194444453</v>
+        <v>44701.663194444453</v>
       </c>
       <c r="F64">
-        <v>250.84534768275211</v>
+        <v>382.2387837837058</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>43455.395833333343</v>
+        <v>44708.395833333343</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>43455.395833333343</v>
+        <v>44708.395833333343</v>
       </c>
       <c r="D65">
-        <v>246.74000549316409</v>
+        <v>407.91000366210938</v>
       </c>
       <c r="E65" s="1">
-        <v>43458.663194444453</v>
+        <v>44725.663194444453</v>
       </c>
       <c r="F65">
-        <v>238.58154634240279</v>
+        <v>373.83482476447301</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>43474.395833333343</v>
+        <v>44727.395833333343</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>43474.395833333343</v>
+        <v>44727.395833333343</v>
       </c>
       <c r="D66">
-        <v>257.55999755859381</v>
+        <v>377.3599853515625</v>
       </c>
       <c r="E66" s="1">
-        <v>43483.663194444453</v>
+        <v>44728.663194444453</v>
       </c>
       <c r="F66">
-        <v>266.07621978511128</v>
+        <v>364.88257610668069</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>43593.395833333343</v>
+        <v>44733.395833333343</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>43593.395833333343</v>
+        <v>44733.395833333343</v>
       </c>
       <c r="D67">
-        <v>287.52999877929688</v>
+        <v>371.8900146484375</v>
       </c>
       <c r="E67" s="1">
-        <v>43614.663194444453</v>
+        <v>44763.663194444453</v>
       </c>
       <c r="F67">
-        <v>278.02281835684892</v>
+        <v>398.79000854492188</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>43626.395833333343</v>
+        <v>44804.395833333343</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>43626.395833333343</v>
+        <v>44804.395833333343</v>
       </c>
       <c r="D68">
-        <v>289.3699951171875</v>
+        <v>399.92999267578119</v>
       </c>
       <c r="E68" s="1">
-        <v>43656.663194444453</v>
+        <v>44820.663194444453</v>
       </c>
       <c r="F68">
-        <v>298.93801502502919</v>
+        <v>386.70630605922241</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>43679.395833333343</v>
+        <v>44827.395833333343</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>43679.395833333343</v>
+        <v>44827.395833333343</v>
       </c>
       <c r="D69">
-        <v>293.85000610351563</v>
+        <v>370.57998657226563</v>
       </c>
       <c r="E69" s="1">
-        <v>43682.663194444453</v>
+        <v>44834.663194444453</v>
       </c>
       <c r="F69">
-        <v>284.1338546166304</v>
+        <v>358.32675801090352</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>43697.395833333343</v>
+        <v>44869.395833333343</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>43697.395833333343</v>
+        <v>44869.395833333343</v>
       </c>
       <c r="D70">
-        <v>291.76998901367188</v>
+        <v>377</v>
       </c>
       <c r="E70" s="1">
-        <v>43720.663194444453</v>
+        <v>44896.663194444453</v>
       </c>
       <c r="F70">
-        <v>301.41736472815472</v>
+        <v>408.49308016248148</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43741.395833333343</v>
+        <v>44902.395833333343</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>43741.395833333343</v>
+        <v>44902.395833333343</v>
       </c>
       <c r="D71">
-        <v>287.80999755859381</v>
+        <v>392.94000244140619</v>
       </c>
       <c r="E71" s="1">
-        <v>43773.663194444453</v>
+        <v>44914.663194444453</v>
       </c>
       <c r="F71">
-        <v>307.3699951171875</v>
+        <v>379.94743987656892</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43805.395833333343</v>
+        <v>44984.395833333343</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>43805.395833333343</v>
+        <v>44984.395833333343</v>
       </c>
       <c r="D72">
-        <v>314.1199951171875</v>
+        <v>399.8699951171875</v>
       </c>
       <c r="E72" s="1">
-        <v>43832.663194444453</v>
+        <v>44995.663194444453</v>
       </c>
       <c r="F72">
-        <v>324.50637386220978</v>
+        <v>386.64829232011488</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43858.395833333343</v>
+        <v>44999.395833333343</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1">
-        <v>43858.395833333343</v>
+        <v>44999.395833333343</v>
       </c>
       <c r="D73">
-        <v>325.05999755859381</v>
+        <v>390.5</v>
       </c>
       <c r="E73" s="1">
-        <v>43872.663194444453</v>
+        <v>45029.663194444453</v>
       </c>
       <c r="F73">
-        <v>335.80810752287681</v>
+        <v>413.47000122070313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43887.395833333343</v>
+        <v>45051.395833333343</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
-        <v>43887.395833333343</v>
+        <v>45051.395833333343</v>
       </c>
       <c r="D74">
-        <v>314.17999267578119</v>
+        <v>408.91000366210938</v>
       </c>
       <c r="E74" s="1">
-        <v>43888.663194444453</v>
+        <v>45082.663194444453</v>
       </c>
       <c r="F74">
-        <v>303.79163011127258</v>
+        <v>427.10000610351563</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43892.395833333343</v>
+        <v>45156.395833333343</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
-        <v>43892.395833333343</v>
+        <v>45156.395833333343</v>
       </c>
       <c r="D75">
-        <v>298.20999145507813</v>
+        <v>433.3699951171875</v>
       </c>
       <c r="E75" s="1">
-        <v>43899.663194444453</v>
+        <v>45187.663194444453</v>
       </c>
       <c r="F75">
-        <v>288.34967703718559</v>
+        <v>443.6300048828125</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43966.395833333343</v>
+        <v>45189.395833333343</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
-        <v>43966.395833333343</v>
+        <v>45189.395833333343</v>
       </c>
       <c r="D76">
-        <v>282.3699951171875</v>
+        <v>444.010009765625</v>
       </c>
       <c r="E76" s="1">
-        <v>43969.663194444453</v>
+        <v>45219.663194444453</v>
       </c>
       <c r="F76">
-        <v>291.70656000037201</v>
+        <v>421.19000244140619</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43994.395833333343</v>
+        <v>45223.395833333343</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
-        <v>43994.395833333343</v>
+        <v>45223.395833333343</v>
       </c>
       <c r="D77">
-        <v>308.239990234375</v>
+        <v>422.64999389648438</v>
       </c>
       <c r="E77" s="1">
-        <v>44025.663194444453</v>
+        <v>45254.663194444453</v>
       </c>
       <c r="F77">
-        <v>318.43194659723508</v>
+        <v>455.29998779296881</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44096.395833333343</v>
+        <v>45369.395833333343</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>44096.395833333343</v>
+        <v>45369.395833333343</v>
       </c>
       <c r="D78">
-        <v>328.57000732421881</v>
+        <v>514</v>
       </c>
       <c r="E78" s="1">
-        <v>44126.663194444453</v>
+        <v>45399.663194444453</v>
       </c>
       <c r="F78">
-        <v>344.6099853515625</v>
+        <v>500.54998779296881</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44133.395833333343</v>
+        <v>45401.395833333343</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>44133.395833333343</v>
+        <v>45401.395833333343</v>
       </c>
       <c r="D79">
-        <v>326.91000366210938</v>
+        <v>499.44000244140619</v>
       </c>
       <c r="E79" s="1">
-        <v>44144.663194444453</v>
+        <v>45432.663194444453</v>
       </c>
       <c r="F79">
-        <v>354.21876480600309</v>
+        <v>530.05999755859375</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44148.395833333343</v>
+        <v>45509.395833333343</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>44148.395833333343</v>
+        <v>45509.395833333343</v>
       </c>
       <c r="D80">
-        <v>355.26998901367188</v>
+        <v>511.6400146484375</v>
       </c>
       <c r="E80" s="1">
-        <v>44166.663194444453</v>
+        <v>45520.663194444453</v>
       </c>
       <c r="F80">
-        <v>367.01699245183028</v>
+        <v>554.38038598970127</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>44179.395833333343</v>
+        <v>45614.395833333343</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>44179.395833333343</v>
+        <v>45614.395833333343</v>
       </c>
       <c r="D81">
-        <v>368.6400146484375</v>
+        <v>586.219970703125</v>
       </c>
       <c r="E81" s="1">
-        <v>44209.663194444453</v>
+        <v>45630.663194444453</v>
       </c>
       <c r="F81">
-        <v>379.79000854492188</v>
+        <v>605.60333609935537</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>44225.395833333343</v>
+        <v>45646.395833333343</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>44225.395833333343</v>
+        <v>45646.395833333343</v>
       </c>
       <c r="D82">
-        <v>375.6300048828125</v>
+        <v>581.77001953125</v>
       </c>
       <c r="E82" s="1">
-        <v>44232.663194444453</v>
+        <v>45678.663194444453</v>
       </c>
       <c r="F82">
-        <v>388.0502123174013</v>
+        <v>603.04998779296875</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44251.395833333343</v>
+        <v>45685.395833333343</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>44251.395833333343</v>
+        <v>45685.395833333343</v>
       </c>
       <c r="D83">
-        <v>386.32998657226563</v>
+        <v>600.6199951171875</v>
       </c>
       <c r="E83" s="1">
-        <v>44281.663194444453</v>
+        <v>45715.663194444453</v>
       </c>
       <c r="F83">
-        <v>395.98001098632813</v>
+        <v>585.04998779296875</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44329.395833333343</v>
+        <v>45721.395833333343</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>44329.395833333343</v>
+        <v>45721.395833333343</v>
       </c>
       <c r="D84">
-        <v>407.07000732421881</v>
+        <v>576.69000244140625</v>
       </c>
       <c r="E84" s="1">
-        <v>44361.663194444453</v>
+        <v>45726.663194444453</v>
       </c>
       <c r="F84">
-        <v>425.260009765625</v>
+        <v>557.62174547931841</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44368.395833333343</v>
+        <v>45728.395833333343</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>44368.395833333343</v>
+        <v>45728.395833333343</v>
       </c>
       <c r="D85">
-        <v>416.79998779296881</v>
+        <v>562.16998291015625</v>
       </c>
       <c r="E85" s="1">
-        <v>44398.663194444453</v>
+        <v>45750.663194444453</v>
       </c>
       <c r="F85">
-        <v>434.54998779296881</v>
+        <v>543.58183044501527</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>44405.395833333343</v>
+        <v>45754.395833333343</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>44405.395833333343</v>
+        <v>45754.395833333343</v>
       </c>
       <c r="D86">
-        <v>439.67999267578119</v>
+        <v>489.19000244140619</v>
       </c>
       <c r="E86" s="1">
-        <v>44435.663194444453</v>
+        <v>45756.663194444453</v>
       </c>
       <c r="F86">
-        <v>450.25</v>
+        <v>530.05498907687502</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44459.395833333343</v>
+        <v>45758.395833333343</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>44459.395833333343</v>
+        <v>45758.395833333343</v>
       </c>
       <c r="D87">
-        <v>434.8800048828125</v>
+        <v>523.010009765625</v>
       </c>
       <c r="E87" s="1">
-        <v>44489.663194444453</v>
+        <v>45779.663194444453</v>
       </c>
       <c r="F87">
-        <v>452.41000366210938</v>
+        <v>566.70018526517151</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44532.395833333343</v>
+        <v>45831.395833333343</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>44532.395833333343</v>
+        <v>45831.395833333343</v>
       </c>
       <c r="D88">
-        <v>450.73001098632813</v>
+        <v>595.03997802734375</v>
       </c>
       <c r="E88" s="1">
-        <v>44564.663194444453</v>
+        <v>45861.663194444453</v>
       </c>
       <c r="F88">
-        <v>477.70999145507813</v>
+        <v>634.21002197265625</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44571.395833333343</v>
+        <v>45971.395833333343</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>44571.395833333343</v>
+        <v>45971.395833333343</v>
       </c>
       <c r="D89">
-        <v>462.70001220703119</v>
+        <v>677.239990234375</v>
       </c>
       <c r="E89" s="1">
-        <v>44581.663194444453</v>
+        <v>45978.663194444453</v>
       </c>
       <c r="F89">
-        <v>447.40083467356732</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>44585.395833333343</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
-        <v>44585.395833333343</v>
-      </c>
-      <c r="D90">
-        <v>432.02999877929688</v>
-      </c>
-      <c r="E90" s="1">
-        <v>44615.663194444453</v>
-      </c>
-      <c r="F90">
-        <v>421.95001220703119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>44629.395833333343</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
-        <v>44629.395833333343</v>
-      </c>
-      <c r="D91">
-        <v>425.1400146484375</v>
-      </c>
-      <c r="E91" s="1">
-        <v>44649.663194444453</v>
-      </c>
-      <c r="F91">
-        <v>460.65452011687728</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>44658.395833333343</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" s="1">
-        <v>44658.395833333343</v>
-      </c>
-      <c r="D92">
-        <v>445.58999633789063</v>
-      </c>
-      <c r="E92" s="1">
-        <v>44683.663194444453</v>
-      </c>
-      <c r="F92">
-        <v>408.36718075627522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>44685.395833333343</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1">
-        <v>44685.395833333343</v>
-      </c>
-      <c r="D93">
-        <v>417.07998657226563</v>
-      </c>
-      <c r="E93" s="1">
-        <v>44701.663194444453</v>
-      </c>
-      <c r="F93">
-        <v>382.2387837837058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>44708.395833333343</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1">
-        <v>44708.395833333343</v>
-      </c>
-      <c r="D94">
-        <v>407.91000366210938</v>
-      </c>
-      <c r="E94" s="1">
-        <v>44725.663194444453</v>
-      </c>
-      <c r="F94">
-        <v>373.83482476447301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>44727.395833333343</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>44727.395833333343</v>
-      </c>
-      <c r="D95">
-        <v>377.3599853515625</v>
-      </c>
-      <c r="E95" s="1">
-        <v>44728.663194444453</v>
-      </c>
-      <c r="F95">
-        <v>364.88257610668069</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>44733.395833333343</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1">
-        <v>44733.395833333343</v>
-      </c>
-      <c r="D96">
-        <v>371.8900146484375</v>
-      </c>
-      <c r="E96" s="1">
-        <v>44763.663194444453</v>
-      </c>
-      <c r="F96">
-        <v>398.79000854492188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>44804.395833333343</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
-        <v>44804.395833333343</v>
-      </c>
-      <c r="D97">
-        <v>399.92999267578119</v>
-      </c>
-      <c r="E97" s="1">
-        <v>44820.663194444453</v>
-      </c>
-      <c r="F97">
-        <v>386.70630605922241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>44827.395833333343</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>44827.395833333343</v>
-      </c>
-      <c r="D98">
-        <v>370.57998657226563</v>
-      </c>
-      <c r="E98" s="1">
-        <v>44834.663194444453</v>
-      </c>
-      <c r="F98">
-        <v>358.32675801090352</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>44869.395833333343</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1">
-        <v>44869.395833333343</v>
-      </c>
-      <c r="D99">
-        <v>377</v>
-      </c>
-      <c r="E99" s="1">
-        <v>44896.663194444453</v>
-      </c>
-      <c r="F99">
-        <v>408.49308016248148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>44902.395833333343</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1">
-        <v>44902.395833333343</v>
-      </c>
-      <c r="D100">
-        <v>392.94000244140619</v>
-      </c>
-      <c r="E100" s="1">
-        <v>44914.663194444453</v>
-      </c>
-      <c r="F100">
-        <v>379.94743987656892</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>44984.395833333343</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>44984.395833333343</v>
-      </c>
-      <c r="D101">
-        <v>399.8699951171875</v>
-      </c>
-      <c r="E101" s="1">
-        <v>44995.663194444453</v>
-      </c>
-      <c r="F101">
-        <v>386.64829232011488</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>44999.395833333343</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1">
-        <v>44999.395833333343</v>
-      </c>
-      <c r="D102">
-        <v>390.5</v>
-      </c>
-      <c r="E102" s="1">
-        <v>45029.663194444453</v>
-      </c>
-      <c r="F102">
-        <v>413.47000122070313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>45051.395833333343</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103" s="1">
-        <v>45051.395833333343</v>
-      </c>
-      <c r="D103">
-        <v>408.91000366210938</v>
-      </c>
-      <c r="E103" s="1">
-        <v>45082.663194444453</v>
-      </c>
-      <c r="F103">
-        <v>427.10000610351563</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>45156.395833333343</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1">
-        <v>45156.395833333343</v>
-      </c>
-      <c r="D104">
-        <v>433.3699951171875</v>
-      </c>
-      <c r="E104" s="1">
-        <v>45187.663194444453</v>
-      </c>
-      <c r="F104">
-        <v>443.6300048828125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>45189.395833333343</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1">
-        <v>45189.395833333343</v>
-      </c>
-      <c r="D105">
-        <v>444.010009765625</v>
-      </c>
-      <c r="E105" s="1">
-        <v>45219.663194444453</v>
-      </c>
-      <c r="F105">
-        <v>421.19000244140619</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>45223.395833333343</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1">
-        <v>45223.395833333343</v>
-      </c>
-      <c r="D106">
-        <v>422.64999389648438</v>
-      </c>
-      <c r="E106" s="1">
-        <v>45254.663194444453</v>
-      </c>
-      <c r="F106">
-        <v>455.29998779296881</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>45369.395833333343</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>45369.395833333343</v>
-      </c>
-      <c r="D107">
-        <v>514</v>
-      </c>
-      <c r="E107" s="1">
-        <v>45399.663194444453</v>
-      </c>
-      <c r="F107">
-        <v>500.54998779296881</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>45401.395833333343</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1">
-        <v>45401.395833333343</v>
-      </c>
-      <c r="D108">
-        <v>499.44000244140619</v>
-      </c>
-      <c r="E108" s="1">
-        <v>45432.663194444453</v>
-      </c>
-      <c r="F108">
-        <v>530.05999755859375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>45509.395833333343</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" s="1">
-        <v>45509.395833333343</v>
-      </c>
-      <c r="D109">
-        <v>511.6400146484375</v>
-      </c>
-      <c r="E109" s="1">
-        <v>45520.663194444453</v>
-      </c>
-      <c r="F109">
-        <v>554.38038598970127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>45614.395833333343</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1">
-        <v>45614.395833333343</v>
-      </c>
-      <c r="D110">
-        <v>586.219970703125</v>
-      </c>
-      <c r="E110" s="1">
-        <v>45630.663194444453</v>
-      </c>
-      <c r="F110">
-        <v>605.60333609935537</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>45646.395833333343</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1">
-        <v>45646.395833333343</v>
-      </c>
-      <c r="D111">
-        <v>581.77001953125</v>
-      </c>
-      <c r="E111" s="1">
-        <v>45678.663194444453</v>
-      </c>
-      <c r="F111">
-        <v>603.04998779296875</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>45685.395833333343</v>
-      </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112" s="1">
-        <v>45685.395833333343</v>
-      </c>
-      <c r="D112">
-        <v>600.6199951171875</v>
-      </c>
-      <c r="E112" s="1">
-        <v>45715.663194444453</v>
-      </c>
-      <c r="F112">
-        <v>585.04998779296875</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>45721.395833333343</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1">
-        <v>45721.395833333343</v>
-      </c>
-      <c r="D113">
-        <v>576.69000244140625</v>
-      </c>
-      <c r="E113" s="1">
-        <v>45726.663194444453</v>
-      </c>
-      <c r="F113">
-        <v>557.62174547931841</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>45728.395833333343</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1">
-        <v>45728.395833333343</v>
-      </c>
-      <c r="D114">
-        <v>562.16998291015625</v>
-      </c>
-      <c r="E114" s="1">
-        <v>45750.663194444453</v>
-      </c>
-      <c r="F114">
-        <v>543.58183044501527</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>45754.395833333343</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1">
-        <v>45754.395833333343</v>
-      </c>
-      <c r="D115">
-        <v>489.19000244140619</v>
-      </c>
-      <c r="E115" s="1">
-        <v>45756.663194444453</v>
-      </c>
-      <c r="F115">
-        <v>530.05498907687502</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>45758.395833333343</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1">
-        <v>45758.395833333343</v>
-      </c>
-      <c r="D116">
-        <v>523.010009765625</v>
-      </c>
-      <c r="E116" s="1">
-        <v>45779.663194444453</v>
-      </c>
-      <c r="F116">
-        <v>566.70018526517151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>45831.395833333343</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1">
-        <v>45831.395833333343</v>
-      </c>
-      <c r="D117">
-        <v>595.03997802734375</v>
-      </c>
-      <c r="E117" s="1">
-        <v>45861.663194444453</v>
-      </c>
-      <c r="F117">
-        <v>634.21002197265625</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>45971.395833333343</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1">
-        <v>45971.395833333343</v>
-      </c>
-      <c r="D118">
-        <v>677.239990234375</v>
-      </c>
-      <c r="E118" s="1">
-        <v>45978.663194444453</v>
-      </c>
-      <c r="F118">
         <v>665.66998291015625</v>
       </c>
     </row>
